--- a/Backbase-Assignment-TestCases.xlsx
+++ b/Backbase-Assignment-TestCases.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="203">
   <si>
     <t>Backbase Assignment</t>
   </si>
@@ -38,13 +38,10 @@
     <t>Create Operations</t>
   </si>
   <si>
-    <t>Search Operations</t>
+    <t>Sanity</t>
   </si>
   <si>
     <t xml:space="preserve">Test Designed date: </t>
-  </si>
-  <si>
-    <t>Sanity</t>
   </si>
   <si>
     <t>23-11-2018</t>
@@ -86,10 +83,13 @@
     <t>Test cases for creating a new computer and verifying that it is added or not</t>
   </si>
   <si>
-    <t>Sanity Tests for verifying that all the fields/locators are present and basic functionality of the application works</t>
+    <t>Search Operations</t>
   </si>
   <si>
     <t xml:space="preserve">Test cases for doing searching operations on the computers table </t>
+  </si>
+  <si>
+    <t>Sanity Tests for verifying that all the fields/locators are present and basic functionality of the application works</t>
   </si>
   <si>
     <t>Pre-condition</t>
@@ -146,7 +146,7 @@
     <t>Search001/@Search001</t>
   </si>
   <si>
-    <t>Create001/@Create001</t>
+    <t>Sanity001/@Sanity001</t>
   </si>
   <si>
     <t>Search String Complete Match</t>
@@ -159,16 +159,16 @@
 http://computer-database.herokuapp.com/computers</t>
   </si>
   <si>
-    <t>url : http://computer-database.herokuapp.com/computers</t>
+    <t>Create001/@Create001</t>
   </si>
   <si>
-    <t>User should be able to open tha application url</t>
+    <t>url : http://computer-database.herokuapp.com/computers</t>
   </si>
   <si>
     <t>Create a new computer using valid data</t>
   </si>
   <si>
-    <t>Sanity001/@Sanity001</t>
+    <t>User should be able to open tha application url</t>
   </si>
   <si>
     <t>Create a computer by selecting valid data from the add computer page</t>
@@ -177,16 +177,16 @@
     <t>Application should load properly</t>
   </si>
   <si>
+    <t>Homepage WebElements Validation</t>
+  </si>
+  <si>
     <t>User is able to open tha application url</t>
   </si>
   <si>
-    <t>Homepage WebElements Validation</t>
+    <t>Sanity check of all the locators present on the page</t>
   </si>
   <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Sanity check of all the locators present on the page</t>
   </si>
   <si>
     <t>Verify the page title</t>
@@ -213,13 +213,13 @@
     <t>Landing Page heading matches "Play sample application — Computer database"</t>
   </si>
   <si>
-    <t>Click on add a new computer button</t>
-  </si>
-  <si>
     <t>Enter search string "&lt;data&gt;" in the search box and click on Filter by name button</t>
   </si>
   <si>
     <t>data : Amiga 1200</t>
+  </si>
+  <si>
+    <t>Click on add a new computer button</t>
   </si>
   <si>
     <t>validate presence of add a new computer button</t>
@@ -231,41 +231,31 @@
     <t>add a new computer button is present on the homepage</t>
   </si>
   <si>
-    <t>User should be able to click on add a new computer button</t>
+    <t>validate presence of filter by computer name edit box</t>
   </si>
   <si>
     <t>User should be able to enter the search string in the search box and click on filter button</t>
   </si>
   <si>
-    <t>User is able to click on add a new computer button</t>
+    <t>filter by computer name edit box should be present and displayed</t>
   </si>
   <si>
     <t>User is able to enter the search string in the search box and click on filter button</t>
   </si>
   <si>
-    <t>validate presence of filter by computer name edit box</t>
-  </si>
-  <si>
-    <t>filter by computer name edit box should be present and displayed</t>
-  </si>
-  <si>
-    <t>successfully create a new computer using the following details</t>
-  </si>
-  <si>
-    <t>|computerName|introducedDate|discontinuedDate|company|
-|Lenovo 9876    |2006-06-12    |2012-09-15|Lenovo Group |</t>
-  </si>
-  <si>
-    <t>User should be able to add the data into the create computer form and click on submit</t>
-  </si>
-  <si>
     <t>filter by computer name edit box is present</t>
   </si>
   <si>
-    <t>User is able to add the data into the create computer form and click on submit</t>
+    <t>validate presence of filter by name button</t>
+  </si>
+  <si>
+    <t>filter by name button should be present and displayed</t>
   </si>
   <si>
     <t>Verify that the Current link displays "Displaying 1 to 1 of " total number of computers displayed on the page</t>
+  </si>
+  <si>
+    <t>filter by name button is present and displayed</t>
   </si>
   <si>
     <t>Current link should match "Displaying 1 to 1 of " total number of computers displayed on the page</t>
@@ -274,22 +264,13 @@
     <t>current link matches "Displaying 1 to 1 of " total number of computers displayed on the page</t>
   </si>
   <si>
-    <t>user should validate the success message upon new computer creation on the home page</t>
+    <t>verify that the "← Previous" link is disabled on the first or landing page</t>
   </si>
   <si>
-    <t>User should be able to validate the success message "Done! Computer &lt;computername&gt; has been created"</t>
+    <t>"← Previous" link should be disabled on the first or landing page</t>
   </si>
   <si>
-    <t>User is able to validate the success message on the home page</t>
-  </si>
-  <si>
-    <t>validate presence of filter by name button</t>
-  </si>
-  <si>
-    <t>filter by name button should be present and displayed</t>
-  </si>
-  <si>
-    <t>filter by name button is present and displayed</t>
+    <t>"← Previous" link is disabled on the first or landing page</t>
   </si>
   <si>
     <t>verify that the filtered table row count matches the number of computers displayed on the page</t>
@@ -301,13 +282,96 @@
     <t>Table row count including pagination matches the count displayed on the page</t>
   </si>
   <si>
-    <t>verify that the "← Previous" link is disabled on the first or landing page</t>
+    <t>verify that the "Next →" link is enabled on the first or landing page</t>
   </si>
   <si>
-    <t>"← Previous" link should be disabled on the first or landing page</t>
+    <t>"Next →" link is enabled on the first or landing page</t>
   </si>
   <si>
-    <t>"← Previous" link is disabled on the first or landing page</t>
+    <t>verify that the Current link displays "Displaying 1 to 10 of " total number of computers displayed on the page</t>
+  </si>
+  <si>
+    <t>User should be able to click on add a new computer button</t>
+  </si>
+  <si>
+    <t>Current link should display "Displaying 1 to 10 of " total number of computers displayed on the page</t>
+  </si>
+  <si>
+    <t>Current link displays "Displaying 1 to 10 of " total number of computers displayed on the page</t>
+  </si>
+  <si>
+    <t>User is able to click on add a new computer button</t>
+  </si>
+  <si>
+    <t>verify that the table contains the data for the search string "&lt;data&gt;" and row count is "1"</t>
+  </si>
+  <si>
+    <t>successfully create a new computer using the following details</t>
+  </si>
+  <si>
+    <t>verify that the maximum number of rows in the table equals 10</t>
+  </si>
+  <si>
+    <t>|computerName|introducedDate|discontinuedDate|company|
+|Lenovo 9876    |2006-06-12    |2012-09-15|Lenovo Group |</t>
+  </si>
+  <si>
+    <t>maximum number of rows in the table should be equal to 10</t>
+  </si>
+  <si>
+    <t>User should be able to add the data into the create computer form and click on submit</t>
+  </si>
+  <si>
+    <t>Maximum number of rows in the table equals 10</t>
+  </si>
+  <si>
+    <t>User is able to add the data into the create computer form and click on submit</t>
+  </si>
+  <si>
+    <t>user should validate the success message upon new computer creation on the home page</t>
+  </si>
+  <si>
+    <t>User should be able to see one row in the computers table</t>
+  </si>
+  <si>
+    <t>User should be able to validate the success message "Done! Computer &lt;computername&gt; has been created"</t>
+  </si>
+  <si>
+    <t>User is able to see one row in the computers table</t>
+  </si>
+  <si>
+    <t>verify computers table header</t>
+  </si>
+  <si>
+    <t>User is able to validate the success message on the home page</t>
+  </si>
+  <si>
+    <t>Table headers respectively :
+Computer name, Introduced, Discontinued, Company</t>
+  </si>
+  <si>
+    <t>Table Headers should match the test data provided</t>
+  </si>
+  <si>
+    <t>Table Headers matches the test data provided</t>
+  </si>
+  <si>
+    <t>verify that the number of clicks to Next and Previous link is equal to the number of pages present on the table</t>
+  </si>
+  <si>
+    <t>Number of clicks required to navigate to the last page of the table should match the number of pages in the web table</t>
+  </si>
+  <si>
+    <t>Number of clicks required to navigate to the last page of the table matches the number of pages in the web table</t>
+  </si>
+  <si>
+    <t>verify the sorting order of the first column is in ascending order</t>
+  </si>
+  <si>
+    <t>Column one data of the computers table should be sorted in ascending oerder by default</t>
+  </si>
+  <si>
+    <t>Column one data of the computers table is sorted in ascending oerder by default</t>
   </si>
   <si>
     <t>search the newly created computer and validate the data</t>
@@ -320,40 +384,16 @@
     <t>User should be able to validate the data for computer name, Introduced date and Discontinued in format (DD MMM YYYY i.e. 01 Jan 2018) and also this data should be as per the data provided on create computer page</t>
   </si>
   <si>
-    <t>verify that the table contains the data for the search string "&lt;data&gt;" and row count is "1"</t>
-  </si>
-  <si>
     <t>User is able to validate the table data as per the mentioned format</t>
   </si>
   <si>
-    <t>verify that the "Next →" link is enabled on the first or landing page</t>
+    <t>Search002/@Search002</t>
   </si>
   <si>
-    <t>"Next →" link is enabled on the first or landing page</t>
-  </si>
-  <si>
-    <t>verify that the Current link displays "Displaying 1 to 10 of " total number of computers displayed on the page</t>
-  </si>
-  <si>
-    <t>Current link should display "Displaying 1 to 10 of " total number of computers displayed on the page</t>
-  </si>
-  <si>
-    <t>Current link displays "Displaying 1 to 10 of " total number of computers displayed on the page</t>
-  </si>
-  <si>
-    <t>User should be able to see one row in the computers table</t>
-  </si>
-  <si>
-    <t>User is able to see one row in the computers table</t>
-  </si>
-  <si>
-    <t>verify that the maximum number of rows in the table equals 10</t>
+    <t>Search String Partial Match</t>
   </si>
   <si>
     <t>Create002/@Create002</t>
-  </si>
-  <si>
-    <t>maximum number of rows in the table should be equal to 10</t>
   </si>
   <si>
     <t>Add a new Computer using blank computer name</t>
@@ -362,44 +402,13 @@
     <t>User not able to create a computer using blank computername</t>
   </si>
   <si>
-    <t>Maximum number of rows in the table equals 10</t>
+    <t>data : Amiga</t>
   </si>
   <si>
-    <t>verify that the number of clicks to Next and Previous link is equal to the number of pages present on the table</t>
+    <t>Verify that the Current link displays "Displaying 1 to 10 of " total number of computers displayed on the page</t>
   </si>
   <si>
-    <t>Number of clicks required to navigate to the last page of the table should match the number of pages in the web table</t>
-  </si>
-  <si>
-    <t>Number of clicks required to navigate to the last page of the table matches the number of pages in the web table</t>
-  </si>
-  <si>
-    <t>verify computers table header</t>
-  </si>
-  <si>
-    <t>Table headers respectively :
-Computer name, Introduced, Discontinued, Company</t>
-  </si>
-  <si>
-    <t>Table Headers should match the test data provided</t>
-  </si>
-  <si>
-    <t>Table Headers matches the test data provided</t>
-  </si>
-  <si>
-    <t>verify the sorting order of the first column is in ascending order</t>
-  </si>
-  <si>
-    <t>Search002/@Search002</t>
-  </si>
-  <si>
-    <t>Column one data of the computers table should be sorted in ascending oerder by default</t>
-  </si>
-  <si>
-    <t>Search String Partial Match</t>
-  </si>
-  <si>
-    <t>Column one data of the computers table is sorted in ascending oerder by default</t>
+    <t>current link matches "Displaying 1 to 10 of " total number of computers displayed on the page</t>
   </si>
   <si>
     <t>Unable to create  new computer using the following details</t>
@@ -418,28 +427,31 @@
     <t>Create003/@Create003</t>
   </si>
   <si>
+    <t>verify that the table contains the data for the search string "&lt;data&gt;" and row count is greater than "1"</t>
+  </si>
+  <si>
     <t>Add a new Computer using blank Introduced date, discontinued date and company</t>
+  </si>
+  <si>
+    <t>User should be able to see more than one row in the computers table</t>
   </si>
   <si>
     <t>User should be able to create a computer using blank Introduced date, discontinued date and company</t>
   </si>
   <si>
-    <t>data : Amiga</t>
+    <t>User is able to see more than one row in the computers table</t>
   </si>
   <si>
-    <t>Verify that the Current link displays "Displaying 1 to 10 of " total number of computers displayed on the page</t>
+    <t>verify the current link text after every click on the next link button</t>
   </si>
   <si>
-    <t>current link matches "Displaying 1 to 10 of " total number of computers displayed on the page</t>
+    <t>Current link text should update for every page view on the computer table after clicking on next button</t>
   </si>
   <si>
-    <t>verify that the table contains the data for the search string "&lt;data&gt;" and row count is greater than "1"</t>
+    <t>Current link text is updated for every page view on the computer table after clicking on next button</t>
   </si>
   <si>
-    <t>User should be able to see more than one row in the computers table</t>
-  </si>
-  <si>
-    <t>User is able to see more than one row in the computers table</t>
+    <t>FAIL</t>
   </si>
   <si>
     <t>|computerName|introducedDate|discontinuedDate|company|
@@ -450,13 +462,13 @@
 |Lenovo 9876    |         -           |       -                |-|</t>
   </si>
   <si>
-    <t>Search003/@Search003</t>
+    <t>Verify that the default sorting order of the table is by computer name is ascending order</t>
   </si>
   <si>
-    <t xml:space="preserve">Blank/white space Search String </t>
+    <t>default sorting order of the table should be by computer name is ascending order</t>
   </si>
   <si>
-    <t>Search string matches all the Computer Name in the table</t>
+    <t>default sorting order of the table is be by computer name is ascending order</t>
   </si>
   <si>
     <t>Create004/@Create004</t>
@@ -466,6 +478,24 @@
   </si>
   <si>
     <t>User not able to add a new Computer using invalid Introduced date</t>
+  </si>
+  <si>
+    <t>verify that the Introduced date and discontinued date is either "-" or a valida date for all pages of the table</t>
+  </si>
+  <si>
+    <t>Introduced date and discontinued date should be either "-" or a valida date for all pages of the table</t>
+  </si>
+  <si>
+    <t>Introduced date and discontinued date is either "-" or a valida date for all pages of the table</t>
+  </si>
+  <si>
+    <t>Search003/@Search003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank/white space Search String </t>
+  </si>
+  <si>
+    <t>Search string matches all the Computer Name in the table</t>
   </si>
   <si>
     <t>|computerName|introducedDate|discontinuedDate|company|
@@ -486,13 +516,12 @@
     <t>User not able to add a new Computer using invalid Discontinued date</t>
   </si>
   <si>
-    <t>verify the current link text after every click on the next link button</t>
+    <t>|computerName|introducedDate|discontinuedDate|company|
+|   Lenovo 9876|  2011-01-01   |   2018-31-31     |Lenovo Group|</t>
   </si>
   <si>
-    <t>Current link text should update for every page view on the computer table after clicking on next button</t>
-  </si>
-  <si>
-    <t>Current link text is updated for every page view on the computer table after clicking on next button</t>
+    <t>User should be able to add the data into the create computer form 
+but upon clicking the submit button it should highlight the computer name section in red and should show error on DOM</t>
   </si>
   <si>
     <t>Search004/@Search004</t>
@@ -502,14 +531,6 @@
   </si>
   <si>
     <t>Search string doesnot match any Computer Name in the table</t>
-  </si>
-  <si>
-    <t>|computerName|introducedDate|discontinuedDate|company|
-|   Lenovo 9876|  2011-01-01   |   2018-31-31     |Lenovo Group|</t>
-  </si>
-  <si>
-    <t>User should be able to add the data into the create computer form 
-but upon clicking the submit button it should highlight the computer name section in red and should show error on DOM</t>
   </si>
   <si>
     <t>data : Abhishek</t>
@@ -527,25 +548,25 @@
     <t>Edit Operations</t>
   </si>
   <si>
-    <t>Test cases for editing computer details and verifying that it is changed or not</t>
-  </si>
-  <si>
     <t>Delete Operations</t>
   </si>
   <si>
     <t>Test cases for deleting computer and verifying it</t>
   </si>
   <si>
-    <t>Edit computer details</t>
-  </si>
-  <si>
-    <t>Edit computer details and verify</t>
+    <t>Test cases for editing computer details and verifying that it is changed or not</t>
   </si>
   <si>
     <t>Delete001/@Delete001</t>
   </si>
   <si>
     <t>Delete Computer</t>
+  </si>
+  <si>
+    <t>Edit computer details and verify</t>
+  </si>
+  <si>
+    <t>Edit computer details</t>
   </si>
   <si>
     <t xml:space="preserve">Click on the computer name in the table </t>
@@ -561,6 +582,28 @@
   </si>
   <si>
     <t>Edit computer page is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on delete this computer button </t>
+  </si>
+  <si>
+    <t>User should be able to click on the delete this computer button</t>
+  </si>
+  <si>
+    <t>User is able to click on the delete this computer button</t>
+  </si>
+  <si>
+    <t>Validate the success message on the homepage upon successful deletion of the computer</t>
+  </si>
+  <si>
+    <t>Success message : 
+Done! Computer has been updated</t>
+  </si>
+  <si>
+    <t>success message should be displayed on the homepage upon successful deletion of computer</t>
+  </si>
+  <si>
+    <t>success message is displayed on the homepage upon successful deletion of the computer</t>
   </si>
   <si>
     <t>Make changes to computer data and save it</t>
@@ -597,28 +640,6 @@
   </si>
   <si>
     <t>User is able to validate the data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click on delete this computer button </t>
-  </si>
-  <si>
-    <t>User should be able to click on the delete this computer button</t>
-  </si>
-  <si>
-    <t>User is able to click on the delete this computer button</t>
-  </si>
-  <si>
-    <t>Validate the success message on the homepage upon successful deletion of the computer</t>
-  </si>
-  <si>
-    <t>Success message : 
-Done! Computer has been updated</t>
-  </si>
-  <si>
-    <t>success message should be displayed on the homepage upon successful deletion of computer</t>
-  </si>
-  <si>
-    <t>success message is displayed on the homepage upon successful deletion of the computer</t>
   </si>
 </sst>
 </file>
@@ -682,7 +703,7 @@
       <name val="Docs-Roboto"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +732,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -829,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -929,6 +956,15 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -1008,13 +1044,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -1025,11 +1061,11 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -1043,16 +1079,16 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -1063,16 +1099,16 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -1082,10 +1118,10 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -1192,31 +1228,31 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -1254,7 +1290,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -1292,7 +1328,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -1328,7 +1364,7 @@
         <v>70</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -1353,18 +1389,18 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -1389,18 +1425,18 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -1425,18 +1461,18 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -1461,18 +1497,18 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="27" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -1497,18 +1533,18 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -1533,18 +1569,18 @@
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -1569,20 +1605,20 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -1607,15 +1643,15 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="32" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I23" s="28"/>
       <c r="J23" s="27"/>
@@ -4858,13 +4894,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -4875,13 +4911,13 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -4895,16 +4931,16 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -4915,16 +4951,16 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -4934,10 +4970,10 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -5056,19 +5092,19 @@
         <v>46</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -5106,7 +5142,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -5144,7 +5180,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -5169,10 +5205,10 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>72</v>
@@ -5182,7 +5218,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -5207,18 +5243,18 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -5243,18 +5279,18 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -5279,20 +5315,20 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -5317,18 +5353,18 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -5358,7 +5394,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -5380,10 +5416,10 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>125</v>
       </c>
       <c r="C21" s="27" t="s">
         <v>45</v>
@@ -5392,19 +5428,19 @@
         <v>46</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G21" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -5442,7 +5478,7 @@
         <v>60</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -5480,7 +5516,7 @@
         <v>64</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -5505,10 +5541,10 @@
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>72</v>
@@ -5518,7 +5554,7 @@
         <v>74</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -5543,18 +5579,18 @@
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J25" s="27"/>
       <c r="K25" s="27"/>
@@ -5579,18 +5615,18 @@
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G26" s="27"/>
       <c r="H26" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -5615,20 +5651,20 @@
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" s="30" t="s">
         <v>137</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>138</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="30" t="s">
         <v>139</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -5653,18 +5689,18 @@
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
       <c r="D28" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -5688,12 +5724,20 @@
       <c r="A29" s="27"/>
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="D29" s="27" t="s">
+        <v>140</v>
+      </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+      <c r="F29" s="30" t="s">
+        <v>141</v>
+      </c>
       <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
+      <c r="H29" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>143</v>
+      </c>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
       <c r="L29" s="27"/>
@@ -5713,109 +5757,55 @@
       <c r="Z29" s="27"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>144</v>
-      </c>
+      <c r="A30" s="36"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H30" s="27" t="s">
-        <v>53</v>
+        <v>146</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G30" s="36"/>
+      <c r="H30" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="27"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="27"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="27"/>
-      <c r="T30" s="27"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="27"/>
-      <c r="W30" s="27"/>
-      <c r="X30" s="27"/>
-      <c r="Y30" s="27"/>
-      <c r="Z30" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27" t="s">
-        <v>60</v>
+        <v>152</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G31" s="36"/>
+      <c r="H31" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="27"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="27"/>
-      <c r="W31" s="27"/>
-      <c r="X31" s="27"/>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="27"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
-      <c r="D32" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="27" t="s">
-        <v>63</v>
-      </c>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="28" t="s">
-        <v>55</v>
-      </c>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
       <c r="L32" s="27"/>
@@ -5835,24 +5825,32 @@
       <c r="Z32" s="27"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C33" s="27" t="s">
+        <v>157</v>
+      </c>
       <c r="D33" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>134</v>
+        <v>46</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>48</v>
       </c>
       <c r="F33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="27"/>
+        <v>50</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="H33" s="27" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J33" s="27"/>
       <c r="K33" s="27"/>
@@ -5877,18 +5875,20 @@
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="27" t="s">
-        <v>135</v>
-      </c>
-      <c r="E34" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>58</v>
+      </c>
       <c r="F34" s="27" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27" t="s">
-        <v>136</v>
+        <v>60</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -5913,18 +5913,20 @@
       <c r="B35" s="27"/>
       <c r="C35" s="27"/>
       <c r="D35" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E35" s="27"/>
+        <v>61</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>62</v>
+      </c>
       <c r="F35" s="27" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G35" s="27"/>
-      <c r="H35" s="30" t="s">
-        <v>93</v>
+      <c r="H35" s="27" t="s">
+        <v>64</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -5949,20 +5951,20 @@
       <c r="B36" s="27"/>
       <c r="C36" s="27"/>
       <c r="D36" s="27" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="F36" s="30" t="s">
-        <v>138</v>
+        <v>127</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="G36" s="27"/>
-      <c r="H36" s="30" t="s">
-        <v>139</v>
+      <c r="H36" s="27" t="s">
+        <v>74</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -5987,18 +5989,18 @@
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="E37" s="27"/>
-      <c r="F37" s="30" t="s">
-        <v>116</v>
+      <c r="F37" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="G37" s="27"/>
-      <c r="H37" s="30" t="s">
-        <v>117</v>
+      <c r="H37" s="27" t="s">
+        <v>129</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -6023,18 +6025,18 @@
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27" t="s">
-        <v>153</v>
+        <v>85</v>
       </c>
       <c r="E38" s="27"/>
-      <c r="F38" s="30" t="s">
-        <v>154</v>
+      <c r="F38" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="30" t="s">
-        <v>155</v>
+        <v>87</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -6055,44 +6057,60 @@
       <c r="Z38" s="27"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
-      <c r="A39" s="6"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="6"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="I39" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="27"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="27" t="s">
-        <v>158</v>
-      </c>
+      <c r="A40" s="27"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="27" t="s">
-        <v>53</v>
+        <v>112</v>
+      </c>
+      <c r="E40" s="27"/>
+      <c r="F40" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="27"/>
+      <c r="H40" s="30" t="s">
+        <v>114</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
@@ -6117,20 +6135,18 @@
       <c r="B41" s="27"/>
       <c r="C41" s="27"/>
       <c r="D41" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>59</v>
+        <v>140</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="30" t="s">
+        <v>141</v>
       </c>
       <c r="G41" s="27"/>
-      <c r="H41" s="27" t="s">
-        <v>60</v>
+      <c r="H41" s="30" t="s">
+        <v>142</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
@@ -6151,127 +6167,85 @@
       <c r="Z41" s="27"/>
     </row>
     <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="27"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="E42" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27" t="s">
-        <v>64</v>
+        <v>146</v>
+      </c>
+      <c r="E42" s="36"/>
+      <c r="F42" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" s="36"/>
+      <c r="H42" s="30" t="s">
+        <v>148</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="27"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="27"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="27"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="27"/>
-      <c r="R42" s="27"/>
-      <c r="S42" s="27"/>
-      <c r="T42" s="27"/>
-      <c r="U42" s="27"/>
-      <c r="V42" s="27"/>
-      <c r="W42" s="27"/>
-      <c r="X42" s="27"/>
-      <c r="Y42" s="27"/>
-      <c r="Z42" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="J42" s="6"/>
     </row>
     <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="27"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E43" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27" t="s">
-        <v>74</v>
+        <v>152</v>
+      </c>
+      <c r="E43" s="36"/>
+      <c r="F43" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="36"/>
+      <c r="H43" s="30" t="s">
+        <v>154</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="27"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="27"/>
-      <c r="R43" s="27"/>
-      <c r="S43" s="27"/>
-      <c r="T43" s="27"/>
-      <c r="U43" s="27"/>
-      <c r="V43" s="27"/>
-      <c r="W43" s="27"/>
-      <c r="X43" s="27"/>
-      <c r="Y43" s="27"/>
-      <c r="Z43" s="27"/>
+        <v>56</v>
+      </c>
+      <c r="J43" s="6"/>
     </row>
     <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="27"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27" t="s">
-        <v>162</v>
-      </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27" t="s">
-        <v>164</v>
-      </c>
-      <c r="I44" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="27"/>
-      <c r="O44" s="27"/>
-      <c r="P44" s="27"/>
-      <c r="Q44" s="27"/>
-      <c r="R44" s="27"/>
-      <c r="S44" s="27"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="27"/>
-      <c r="V44" s="27"/>
-      <c r="W44" s="27"/>
-      <c r="X44" s="27"/>
-      <c r="Y44" s="27"/>
-      <c r="Z44" s="27"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="6"/>
     </row>
     <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
+      <c r="A45" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H45" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="J45" s="27"/>
       <c r="K45" s="27"/>
       <c r="L45" s="27"/>
@@ -6294,12 +6268,22 @@
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="30"/>
+      <c r="D46" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>59</v>
+      </c>
       <c r="G46" s="27"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="27"/>
+      <c r="H46" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="J46" s="27"/>
       <c r="K46" s="27"/>
       <c r="L46" s="27"/>
@@ -6322,12 +6306,22 @@
       <c r="A47" s="27"/>
       <c r="B47" s="27"/>
       <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="30"/>
+      <c r="D47" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>63</v>
+      </c>
       <c r="G47" s="27"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="27"/>
+      <c r="H47" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="I47" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="J47" s="27"/>
       <c r="K47" s="27"/>
       <c r="L47" s="27"/>
@@ -6350,12 +6344,22 @@
       <c r="A48" s="27"/>
       <c r="B48" s="27"/>
       <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="30"/>
+      <c r="D48" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="F48" s="27" t="s">
+        <v>72</v>
+      </c>
       <c r="G48" s="27"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="27"/>
+      <c r="H48" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48" s="28" t="s">
+        <v>56</v>
+      </c>
       <c r="J48" s="27"/>
       <c r="K48" s="27"/>
       <c r="L48" s="27"/>
@@ -6375,64 +6379,152 @@
       <c r="Z48" s="27"/>
     </row>
     <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="6"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="6"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I49" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="27"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
     </row>
     <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="6"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="6"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="27"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="27"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="6"/>
-      <c r="B51" s="34"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="34"/>
-      <c r="J51" s="6"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="27"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="27"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="6"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="34"/>
-      <c r="J52" s="6"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="27"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="27"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="27"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="27"/>
+      <c r="Z52" s="27"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="6"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="34"/>
-      <c r="J53" s="6"/>
+      <c r="A53" s="27"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="27"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="27"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="27"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="27"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="27"/>
+      <c r="Z53" s="27"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="A54" s="6"/>
@@ -8450,11 +8542,66 @@
       <c r="I221" s="34"/>
       <c r="J221" s="6"/>
     </row>
-    <row r="222" ht="12.75" customHeight="1"/>
-    <row r="223" ht="12.75" customHeight="1"/>
-    <row r="224" ht="12.75" customHeight="1"/>
-    <row r="225" ht="12.75" customHeight="1"/>
-    <row r="226" ht="12.75" customHeight="1"/>
+    <row r="222" ht="12.75" customHeight="1">
+      <c r="A222" s="6"/>
+      <c r="B222" s="34"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="6"/>
+      <c r="E222" s="6"/>
+      <c r="F222" s="6"/>
+      <c r="G222" s="6"/>
+      <c r="H222" s="6"/>
+      <c r="I222" s="34"/>
+      <c r="J222" s="6"/>
+    </row>
+    <row r="223" ht="12.75" customHeight="1">
+      <c r="A223" s="6"/>
+      <c r="B223" s="34"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="6"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="6"/>
+      <c r="G223" s="6"/>
+      <c r="H223" s="6"/>
+      <c r="I223" s="34"/>
+      <c r="J223" s="6"/>
+    </row>
+    <row r="224" ht="12.75" customHeight="1">
+      <c r="A224" s="6"/>
+      <c r="B224" s="34"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="6"/>
+      <c r="E224" s="6"/>
+      <c r="F224" s="6"/>
+      <c r="G224" s="6"/>
+      <c r="H224" s="6"/>
+      <c r="I224" s="34"/>
+      <c r="J224" s="6"/>
+    </row>
+    <row r="225" ht="12.75" customHeight="1">
+      <c r="A225" s="6"/>
+      <c r="B225" s="34"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="6"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="6"/>
+      <c r="G225" s="6"/>
+      <c r="H225" s="6"/>
+      <c r="I225" s="34"/>
+      <c r="J225" s="6"/>
+    </row>
+    <row r="226" ht="12.75" customHeight="1">
+      <c r="A226" s="6"/>
+      <c r="B226" s="34"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="6"/>
+      <c r="E226" s="6"/>
+      <c r="F226" s="6"/>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="34"/>
+      <c r="J226" s="6"/>
+    </row>
     <row r="227" ht="12.75" customHeight="1"/>
     <row r="228" ht="12.75" customHeight="1"/>
     <row r="229" ht="12.75" customHeight="1"/>
@@ -9230,6 +9377,11 @@
     <row r="999" ht="12.75" customHeight="1"/>
     <row r="1000" ht="12.75" customHeight="1"/>
     <row r="1001" ht="12.75" customHeight="1"/>
+    <row r="1002" ht="12.75" customHeight="1"/>
+    <row r="1003" ht="12.75" customHeight="1"/>
+    <row r="1004" ht="12.75" customHeight="1"/>
+    <row r="1005" ht="12.75" customHeight="1"/>
+    <row r="1006" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B8:I8"/>
@@ -9303,7 +9455,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -9314,13 +9466,13 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -9334,16 +9486,16 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -9354,16 +9506,16 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -9373,10 +9525,10 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>21</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>22</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -9483,7 +9635,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" s="27" t="s">
         <v>49</v>
@@ -9495,19 +9647,19 @@
         <v>46</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -9545,7 +9697,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -9583,7 +9735,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -9608,18 +9760,18 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -9644,20 +9796,20 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -9682,18 +9834,18 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="30" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -9718,20 +9870,20 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -9781,31 +9933,31 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="27" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D20" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G20" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -9843,7 +9995,7 @@
         <v>60</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -9881,7 +10033,7 @@
         <v>64</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -9906,18 +10058,18 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E23" s="29"/>
       <c r="F23" s="27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -9942,20 +10094,20 @@
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
       <c r="D24" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G24" s="27"/>
       <c r="H24" s="27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -10005,31 +10157,31 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="27" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C26" s="27" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D26" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G26" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J26" s="27"/>
       <c r="K26" s="27"/>
@@ -10067,7 +10219,7 @@
         <v>60</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
@@ -10105,7 +10257,7 @@
         <v>64</v>
       </c>
       <c r="I28" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J28" s="27"/>
       <c r="K28" s="27"/>
@@ -10130,18 +10282,18 @@
       <c r="B29" s="27"/>
       <c r="C29" s="27"/>
       <c r="D29" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E29" s="29"/>
       <c r="F29" s="27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J29" s="27"/>
       <c r="K29" s="27"/>
@@ -10166,20 +10318,20 @@
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="27" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F30" s="27" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J30" s="27"/>
       <c r="K30" s="27"/>
@@ -10204,18 +10356,18 @@
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E31" s="27"/>
       <c r="F31" s="27" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="G31" s="27"/>
       <c r="H31" s="30" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J31" s="27"/>
       <c r="K31" s="27"/>
@@ -10240,20 +10392,20 @@
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="27" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="30" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J32" s="27"/>
       <c r="K32" s="27"/>
@@ -10303,31 +10455,31 @@
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="27" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C34" s="27" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D34" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F34" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G34" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I34" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J34" s="27"/>
       <c r="K34" s="27"/>
@@ -10365,7 +10517,7 @@
         <v>60</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J35" s="27"/>
       <c r="K35" s="27"/>
@@ -10403,7 +10555,7 @@
         <v>64</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36" s="27"/>
       <c r="K36" s="27"/>
@@ -10428,18 +10580,18 @@
       <c r="B37" s="27"/>
       <c r="C37" s="27"/>
       <c r="D37" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J37" s="27"/>
       <c r="K37" s="27"/>
@@ -10464,20 +10616,20 @@
       <c r="B38" s="27"/>
       <c r="C38" s="27"/>
       <c r="D38" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J38" s="27"/>
       <c r="K38" s="27"/>
@@ -10527,31 +10679,31 @@
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="27" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D40" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F40" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G40" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H40" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J40" s="27"/>
       <c r="K40" s="27"/>
@@ -10589,7 +10741,7 @@
         <v>60</v>
       </c>
       <c r="I41" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J41" s="27"/>
       <c r="K41" s="27"/>
@@ -10627,7 +10779,7 @@
         <v>64</v>
       </c>
       <c r="I42" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J42" s="27"/>
       <c r="K42" s="27"/>
@@ -10652,18 +10804,18 @@
       <c r="B43" s="27"/>
       <c r="C43" s="27"/>
       <c r="D43" s="27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E43" s="29"/>
       <c r="F43" s="27" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="I43" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J43" s="27"/>
       <c r="K43" s="27"/>
@@ -10688,20 +10840,20 @@
       <c r="B44" s="27"/>
       <c r="C44" s="27"/>
       <c r="D44" s="27" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E44" s="27" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I44" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J44" s="27"/>
       <c r="K44" s="27"/>
@@ -13840,13 +13992,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -13857,13 +14009,13 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -13877,16 +14029,16 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -13897,16 +14049,16 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -13916,10 +14068,10 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -14026,31 +14178,31 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -14088,7 +14240,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -14126,7 +14278,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -14151,10 +14303,10 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>72</v>
@@ -14164,7 +14316,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -14189,18 +14341,18 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -14225,18 +14377,18 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -14261,20 +14413,20 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -14299,18 +14451,18 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -14335,18 +14487,18 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -14371,20 +14523,20 @@
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -14409,20 +14561,20 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -14447,20 +14599,20 @@
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="27"/>
       <c r="K23" s="27"/>
@@ -18184,13 +18336,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -18201,13 +18353,13 @@
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10"/>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
@@ -18221,16 +18373,16 @@
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="12"/>
       <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
@@ -18241,16 +18393,16 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
@@ -18260,10 +18412,10 @@
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -18370,31 +18522,31 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="27" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G12" s="27" t="s">
         <v>52</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J12" s="27"/>
       <c r="K12" s="27"/>
@@ -18432,7 +18584,7 @@
         <v>60</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J13" s="27"/>
       <c r="K13" s="27"/>
@@ -18470,7 +18622,7 @@
         <v>64</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
@@ -18495,10 +18647,10 @@
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
       <c r="D15" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>72</v>
@@ -18508,7 +18660,7 @@
         <v>74</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
@@ -18533,18 +18685,18 @@
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
       <c r="D16" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J16" s="27"/>
       <c r="K16" s="27"/>
@@ -18569,18 +18721,18 @@
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E17" s="27"/>
       <c r="F17" s="27" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
@@ -18605,20 +18757,20 @@
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F18" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="30" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
@@ -18643,18 +18795,18 @@
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="30" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="30" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -18679,18 +18831,18 @@
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="I20" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -18715,18 +18867,18 @@
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
       <c r="D21" s="27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I21" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J21" s="27"/>
       <c r="K21" s="27"/>
@@ -18751,20 +18903,20 @@
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I22" s="28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
